--- a/焦炭/data_input/焦炭港口仓单价.xlsx
+++ b/焦炭/data_input/焦炭港口仓单价.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1594"/>
+  <dimension ref="A1:C1596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17979,6 +17979,28 @@
         <v>1580.6452</v>
       </c>
     </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>1623.6559</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>1623.6559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
